--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt2-Fzd1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt2-Fzd1.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6559766666666667</v>
+        <v>0.8908616666666668</v>
       </c>
       <c r="N2">
-        <v>1.96793</v>
+        <v>2.672585</v>
       </c>
       <c r="O2">
-        <v>0.030799191223283</v>
+        <v>0.04079002072021364</v>
       </c>
       <c r="P2">
-        <v>0.030799191223283</v>
+        <v>0.04079002072021363</v>
       </c>
       <c r="Q2">
-        <v>0.3133032023555556</v>
+        <v>0.4254874101555556</v>
       </c>
       <c r="R2">
-        <v>2.8197288212</v>
+        <v>3.829386691400001</v>
       </c>
       <c r="S2">
-        <v>0.030799191223283</v>
+        <v>0.04079002072021364</v>
       </c>
       <c r="T2">
-        <v>0.030799191223283</v>
+        <v>0.04079002072021363</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.81477433333334</v>
+        <v>16.81477433333333</v>
       </c>
       <c r="N3">
         <v>50.444323</v>
       </c>
       <c r="O3">
-        <v>0.7894815111340611</v>
+        <v>0.7699006693471485</v>
       </c>
       <c r="P3">
-        <v>0.7894815111340611</v>
+        <v>0.7699006693471484</v>
       </c>
       <c r="Q3">
-        <v>8.030960418591114</v>
+        <v>8.030960418591112</v>
       </c>
       <c r="R3">
         <v>72.27864376732001</v>
       </c>
       <c r="S3">
-        <v>0.7894815111340611</v>
+        <v>0.7699006693471485</v>
       </c>
       <c r="T3">
-        <v>0.7894815111340611</v>
+        <v>0.7699006693471484</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.232341666666667</v>
+        <v>3.879966</v>
       </c>
       <c r="N4">
-        <v>9.697025</v>
+        <v>11.639898</v>
       </c>
       <c r="O4">
-        <v>0.1517637961065464</v>
+        <v>0.1776526024808091</v>
       </c>
       <c r="P4">
-        <v>0.1517637961065464</v>
+        <v>0.1776526024808091</v>
       </c>
       <c r="Q4">
-        <v>1.543809477888889</v>
+        <v>1.85312349448</v>
       </c>
       <c r="R4">
-        <v>13.894285301</v>
+        <v>16.67811145032</v>
       </c>
       <c r="S4">
-        <v>0.1517637961065464</v>
+        <v>0.1776526024808091</v>
       </c>
       <c r="T4">
-        <v>0.1517637961065464</v>
+        <v>0.1776526024808091</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5954103333333333</v>
+        <v>0.2545846666666667</v>
       </c>
       <c r="N5">
-        <v>1.786231</v>
+        <v>0.763754</v>
       </c>
       <c r="O5">
-        <v>0.02795550153610952</v>
+        <v>0.01165670745182886</v>
       </c>
       <c r="P5">
-        <v>0.02795550153610952</v>
+        <v>0.01165670745182886</v>
       </c>
       <c r="Q5">
-        <v>0.2843759140044445</v>
+        <v>0.1215930312622222</v>
       </c>
       <c r="R5">
-        <v>2.55938322604</v>
+        <v>1.09433728136</v>
       </c>
       <c r="S5">
-        <v>0.02795550153610952</v>
+        <v>0.01165670745182886</v>
       </c>
       <c r="T5">
-        <v>0.02795550153610952</v>
+        <v>0.01165670745182886</v>
       </c>
     </row>
   </sheetData>
